--- a/data/trans_orig/P36_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36_R3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CAD74C-1979-4EEB-B85E-D785602E7067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8166D404-14CF-4812-84C5-DE28E1DEF1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1F68B657-889B-4B54-AD66-F9D40B74A252}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D340E77-4884-444E-AFA0-31E35077DFE9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="179">
   <si>
     <t>Población con una adherencia alta a la dieta mediterránea en 2023 (Tasa respuesta: 94,27%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>10,37%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>10,86%</t>
   </si>
   <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
   </si>
   <si>
     <t>NO</t>
@@ -104,28 +104,28 @@
     <t>89,63%</t>
   </si>
   <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
   </si>
   <si>
     <t>89,14%</t>
   </si>
   <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>89,38%</t>
   </si>
   <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>6,83%</t>
   </si>
   <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
   </si>
   <si>
     <t>93,17%</t>
   </si>
   <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
   </si>
   <si>
     <t>92,49%</t>
   </si>
   <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -194,55 +194,55 @@
     <t>28,52%</t>
   </si>
   <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
   </si>
   <si>
     <t>30,05%</t>
   </si>
   <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>34,39%</t>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
   </si>
   <si>
     <t>71,48%</t>
   </si>
   <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
   </si>
   <si>
     <t>69,95%</t>
   </si>
   <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
   </si>
   <si>
     <t>70,66%</t>
   </si>
   <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
+    <t>67,38%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -251,55 +251,55 @@
     <t>37,63%</t>
   </si>
   <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>45,28%</t>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
   </si>
   <si>
     <t>39,99%</t>
   </si>
   <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>46,42%</t>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>46,9%</t>
   </si>
   <si>
     <t>39,0%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
   </si>
   <si>
     <t>62,37%</t>
   </si>
   <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
   </si>
   <si>
     <t>60,01%</t>
   </si>
   <si>
-    <t>53,58%</t>
-  </si>
-  <si>
-    <t>66,24%</t>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>66,36%</t>
   </si>
   <si>
     <t>61,0%</t>
   </si>
   <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -308,55 +308,55 @@
     <t>21,82%</t>
   </si>
   <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>27,85%</t>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
   </si>
   <si>
     <t>31,98%</t>
   </si>
   <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>37,2%</t>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
   </si>
   <si>
     <t>27,33%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
   </si>
   <si>
     <t>78,18%</t>
   </si>
   <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>82,89%</t>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>83,13%</t>
   </si>
   <si>
     <t>68,02%</t>
   </si>
   <si>
-    <t>62,8%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>72,38%</t>
   </si>
   <si>
     <t>72,67%</t>
   </si>
   <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -365,55 +365,55 @@
     <t>15,14%</t>
   </si>
   <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
   </si>
   <si>
     <t>12,25%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
   </si>
   <si>
     <t>84,86%</t>
   </si>
   <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
+    <t>80,73%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
   </si>
   <si>
     <t>90,66%</t>
   </si>
   <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>87,75%</t>
   </si>
   <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -422,55 +422,43 @@
     <t>31,44%</t>
   </si>
   <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
+    <t>35,45%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>14,64%</t>
   </si>
   <si>
     <t>28,23%</t>
   </si>
   <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>64,4%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
+    <t>64,55%</t>
   </si>
   <si>
     <t>74,21%</t>
   </si>
   <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>85,36%</t>
   </si>
   <si>
     <t>71,77%</t>
   </si>
   <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>79,81%</t>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -479,25 +467,25 @@
     <t>3,38%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
   </si>
   <si>
     <t>6,43%</t>
   </si>
   <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>4,92%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>3,74%</t>
   </si>
   <si>
     <t>6,59%</t>
@@ -506,19 +494,19 @@
     <t>96,62%</t>
   </si>
   <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
   </si>
   <si>
     <t>93,57%</t>
   </si>
   <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>95,08%</t>
@@ -527,61 +515,61 @@
     <t>93,41%</t>
   </si>
   <si>
-    <t>96,13%</t>
+    <t>96,26%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
   </si>
   <si>
     <t>18,55%</t>
   </si>
   <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>17,8%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>81,48%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
   </si>
   <si>
     <t>81,45%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
   </si>
   <si>
     <t>82,2%</t>
   </si>
   <si>
-    <t>81,03%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -996,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6CD4CE3-6ADD-4D3C-9F79-43CD6983DF6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A5E69-DCA9-4CBE-9000-B5F99BAAA38F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2053,10 +2041,10 @@
         <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>292</v>
@@ -2065,13 +2053,13 @@
         <v>199805</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M22" s="7">
         <v>478</v>
@@ -2080,13 +2068,13 @@
         <v>385080</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2101,13 +2089,13 @@
         <v>404080</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="H23" s="7">
         <v>627</v>
@@ -2116,13 +2104,13 @@
         <v>575058</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M23" s="7">
         <v>1005</v>
@@ -2131,13 +2119,13 @@
         <v>979138</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2193,7 +2181,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2205,13 +2193,13 @@
         <v>28477</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H25" s="7">
         <v>58</v>
@@ -2220,13 +2208,13 @@
         <v>54992</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M25" s="7">
         <v>84</v>
@@ -2235,13 +2223,13 @@
         <v>83469</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2256,13 +2244,13 @@
         <v>813879</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H26" s="7">
         <v>989</v>
@@ -2271,13 +2259,13 @@
         <v>799723</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>1709</v>
@@ -2286,13 +2274,13 @@
         <v>1613602</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2360,13 +2348,13 @@
         <v>534081</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H28" s="7">
         <v>987</v>
@@ -2375,13 +2363,13 @@
         <v>665897</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M28" s="7">
         <v>1559</v>
@@ -2390,13 +2378,13 @@
         <v>1199978</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2411,13 +2399,13 @@
         <v>2615845</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H29" s="7">
         <v>4078</v>
@@ -2426,28 +2414,28 @@
         <v>2924619</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>6683</v>
       </c>
       <c r="N29" s="7">
-        <v>5540464</v>
+        <v>5540463</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,7 +2477,7 @@
         <v>8242</v>
       </c>
       <c r="N30" s="7">
-        <v>6740442</v>
+        <v>6740441</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -2503,7 +2491,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36_R3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36_R3-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8166D404-14CF-4812-84C5-DE28E1DEF1C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{269385E5-A06F-4B13-AA41-F50502BF3CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6D340E77-4884-444E-AFA0-31E35077DFE9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2149C559-7218-4BC1-B3A0-00A864758856}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -984,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A5E69-DCA9-4CBE-9000-B5F99BAAA38F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE445FC-111F-4FD8-B3B5-DF5B89C83C01}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
